--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/10/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.18269999999999</v>
+        <v>-12.00039999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,10 +558,10 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.264899999999995</v>
+        <v>6.400599999999995</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.1358</v>
+        <v>-11.0217</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.167299999999995</v>
+        <v>6.251899999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.701299999999989</v>
+        <v>9.522799999999988</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.128</v>
+        <v>-12.1414</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.8163</v>
+        <v>-13.3882</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.56960000000001</v>
+        <v>-12.7496</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.370900000000003</v>
+        <v>6.456400000000006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.66950000000001</v>
+        <v>-11.89680000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.85930000000001</v>
+        <v>-12.32910000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.6683</v>
+        <v>-11.7058</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0675</v>
+        <v>-11.0427</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.274</v>
+        <v>-11.05560000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.6367</v>
+        <v>-11.3096</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.096199999999995</v>
+        <v>5.138899999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.0544</v>
+        <v>5.534999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.16750000000001</v>
+        <v>-13.12380000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.589000000000002</v>
+        <v>5.477000000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.6995</v>
+        <v>-12.6589</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
